--- a/pomiary.xlsx
+++ b/pomiary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\OneDrive\Dokumenty\elka\AAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2C5E26-0BD6-4D35-B9C8-54A0E1C45F90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD4814F-5229-4526-9653-D3FE20F147B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF3A95-0C1D-48C4-A9D0-B86A2AD4743E}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H38"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,11 +799,11 @@
         <v>500000</v>
       </c>
       <c r="B21" s="1">
-        <v>2.15971</v>
+        <v>1.15971</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="2"/>
-        <v>2.0387547577332046</v>
+        <v>1.0947600743112615</v>
       </c>
       <c r="F21">
         <v>500000</v>
